--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/z-series.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/z-series.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53A85BE-C3BD-4780-87C8-840032DEB5BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76245C95-B634-4108-AE15-F9566082CB02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" xr2:uid="{C6590354-B643-425C-8354-6D133489F49F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" xr2:uid="{C6590354-B643-425C-8354-6D133489F49F}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="2" r:id="rId1"/>
@@ -793,14 +793,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -816,7 +816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -824,7 +824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -832,7 +832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,7 +840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -848,7 +848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
@@ -856,7 +856,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>96</v>
       </c>
@@ -864,7 +864,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
@@ -872,7 +872,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -893,18 +893,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -924,7 +924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -936,7 +936,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -954,7 +954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -974,7 +974,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
@@ -1003,20 +1003,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>52</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>52</v>
       </c>
@@ -1223,16 +1223,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>55</v>
       </c>
@@ -1303,15 +1303,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1322,14 +1322,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>63</v>
       </c>
@@ -1367,21 +1367,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684B0809-CAD7-4B5E-829B-C5B7245E7E55}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1398,7 +1396,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1407,7 +1405,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1422,7 +1420,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -1439,7 +1437,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>56</v>
       </c>
@@ -1453,7 +1451,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
@@ -1467,7 +1465,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>57</v>
       </c>
@@ -1481,7 +1479,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>69</v>
       </c>
@@ -1495,7 +1493,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>70</v>
       </c>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/z-series.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/z-series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76245C95-B634-4108-AE15-F9566082CB02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FFE6EA-67FD-419C-BF49-49C8A411E30F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" xr2:uid="{C6590354-B643-425C-8354-6D133489F49F}"/>
   </bookViews>
@@ -30,363 +30,383 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
   <si>
     <t/>
   </si>
   <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/07/owl#</t>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/XML/1998/namespace</t>
+  </si>
+  <si>
+    <t>xsd</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#</t>
+  </si>
+  <si>
+    <t>rdfs</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2000/01/rdf-schema#</t>
+  </si>
+  <si>
+    <t>English Attribution</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>pixels</t>
+  </si>
+  <si>
+    <t>acquisition date</t>
+  </si>
+  <si>
+    <t>日本語属性</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>PropertyURI</t>
+  </si>
+  <si>
+    <t>rdfs:label</t>
+  </si>
+  <si>
+    <t>:pixels</t>
+  </si>
+  <si>
+    <t>:acquisitionDate</t>
+  </si>
+  <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>:Image</t>
+  </si>
+  <si>
+    <t>rdf:langString</t>
+  </si>
+  <si>
+    <t>:Pixels</t>
+  </si>
+  <si>
+    <t>xsd:dateTime</t>
+  </si>
+  <si>
+    <t>Pixels</t>
+  </si>
+  <si>
+    <t>size c</t>
+  </si>
+  <si>
+    <t>size t</t>
+  </si>
+  <si>
+    <t>big endian</t>
+  </si>
+  <si>
+    <t>bin data</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>dimension order</t>
+  </si>
+  <si>
+    <t>size z</t>
+  </si>
+  <si>
+    <t>size x</t>
+  </si>
+  <si>
+    <t>size y</t>
+  </si>
+  <si>
+    <t>:bigEndian</t>
+  </si>
+  <si>
+    <t>xsd:boolean</t>
+  </si>
+  <si>
+    <t>xsd:positiveInteger</t>
+  </si>
+  <si>
+    <t>:BinData</t>
+  </si>
+  <si>
+    <t>:Channel</t>
+  </si>
+  <si>
+    <t>Binary Data</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>:data</t>
+  </si>
+  <si>
+    <t>xsd:base64Binary</t>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>identifier</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dcterms:identifier</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xsd:string</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>image:image0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2010-03-02T15:08:59</t>
+  </si>
+  <si>
+    <t>dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>:color</t>
+  </si>
+  <si>
+    <t>:Color</t>
+  </si>
+  <si>
+    <t>[color:-2147483648]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rdf:value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:length</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/////////////////////////wAA////AP//AAAAAP///wD/AP////8AAP//////AP//AAD/AP//////AP////8A/////wD/AP//////AP////8A/////wD/AP//////AP///wD//////wD/AP//////AP///wD//////wD/AP//////AP//AP///////wD//wAA////AP//AAAAAP///wD//////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////wAAAP////8A//////////////8A/////wAA//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A////////////////////////////////</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAAP//AAAA/wAA/////wD///8A/wAAAAD//wAAAAAA/wAAAAD//wAAAAAA/wAAAAD/AAAAAAD//wAAAAAA/wAAAAD/AAAAAP8A/wAAAAAA/wAAAP8AAAAA/wAA/wAAAAAA/wAAAP8AAAD/AAAA/wAAAAAA/wAA/wAAAAD/AAAAAP//AAAA/wAA/////wD/////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAP///wAAAAD/AAAAAAAAAAAAAAD/AAAAAP//AAAAAAAAAAAAAAD/AAAAAAD/AAAAAAAAAAAAAAD/AAAAAAD/AAAAAAAAAAAAAAD/AAAAAAD/AAAAAAAAAAAAAAD/AAAAAAD/AAAAAAAAAAAAAAD/AAAAAAD/AAAAAAAAAAAAAAD/AAAAAAD/AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/////////////////////////wAA////AP//AAAAAP8AAAAAAP////8AAP//////AP////8AAP//////AP////8A//////8AAP//////AP////8A////AAD/AP//////AP///wD///////8AAP//////AP///wD///////8AAP//////AP//AP////////8A/wAA////AP//AAAAAP8AAAD//////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////wAAAP////8A//////////////8A/////wAA//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A////////////////////////////////</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAAPz8AAAA/AAA/Pz8/AAAAPz8/AAAAAD8/AAAAAAA/AAAAPz8/AAAAAAA/AAAAAD8AAAA/AD8/AAAAAAA/AAAAAD8AAAA/AD8/AAAAAAA/AAAAPwAAAD8AAD8/AAAAAAA/AAAAPwAAAD8/Pz8/AAAAAAA/AAA/AAAAAAAAAD8APz8AAAA/AAA/Pz8/AAAAAD8AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPz8/AAAAAD8AAAAAAAAAAAAAAD8AAAAAPz8AAAAAAAAAAAAAAD8AAAAAAD8AAAAAAAAAAAAAAD8AAAAAAD8AAAAAAAAAAAAAAD8AAAAAAD8AAAAAAAAAAAAAAD8AAAAAAD8AAAAAAAAAAAAAAD8AAAAAAD8AAAAAAAAAAAAAAD8AAAAAAD8AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/////////////////////////wAA////AP//AAAAAP8AAAAAAP////8AAP//////AP8A////AP//////AP////8A//8A////AP//////AP////8A//8AAAD/AP//////AP///wD///8A//8AAP//////AP///wD///////8AAP//////AP//AP////////8A/wAA////AP//AAAAAP8AAAD//////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////wAAAP////8A//////////////8A/////wAA//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A////////////////////////////////</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dcterms</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/</t>
+  </si>
+  <si>
+    <t>dimensionOrder:xyctz</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixelType:uint8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixel type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Image:0</t>
+  </si>
+  <si>
+    <t>"18x24y5z1t2c8b-text"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Pixels:0.0</t>
+  </si>
+  <si>
+    <t>Channel:0</t>
+  </si>
+  <si>
+    <t>xsd:nonNegativeLong</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels0:0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
   <si>
-    <t>owl</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2002/07/owl#</t>
-  </si>
-  <si>
-    <t>rdf</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
-  </si>
-  <si>
-    <t>xml</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/XML/1998/namespace</t>
-  </si>
-  <si>
-    <t>xsd</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2001/XMLSchema#</t>
-  </si>
-  <si>
-    <t>rdfs</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2000/01/rdf-schema#</t>
-  </si>
-  <si>
-    <t>English Attribution</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>pixels</t>
-  </si>
-  <si>
-    <t>acquisition date</t>
-  </si>
-  <si>
-    <t>日本語属性</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>PropertyURI</t>
-  </si>
-  <si>
-    <t>rdfs:label</t>
-  </si>
-  <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:acquisitionDate</t>
-  </si>
-  <si>
-    <t>datatype</t>
-  </si>
-  <si>
-    <t>:Image</t>
-  </si>
-  <si>
-    <t>rdf:langString</t>
-  </si>
-  <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
-    <t>xsd:dateTime</t>
-  </si>
-  <si>
-    <t>Pixels</t>
-  </si>
-  <si>
-    <t>size c</t>
-  </si>
-  <si>
-    <t>size t</t>
-  </si>
-  <si>
-    <t>big endian</t>
-  </si>
-  <si>
-    <t>bin data</t>
-  </si>
-  <si>
-    <t>channel</t>
-  </si>
-  <si>
-    <t>dimension order</t>
-  </si>
-  <si>
-    <t>size z</t>
-  </si>
-  <si>
-    <t>size x</t>
-  </si>
-  <si>
-    <t>size y</t>
-  </si>
-  <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
-    <t>xsd:boolean</t>
-  </si>
-  <si>
-    <t>xsd:positiveInteger</t>
-  </si>
-  <si>
-    <t>:BinData</t>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
-    <t>Binary Data</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>:data</t>
-  </si>
-  <si>
-    <t>xsd:base64Binary</t>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>identifier</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>dcterms:identifier</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>xsd:string</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>image:image0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:0:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2010-03-02T15:08:59</t>
-  </si>
-  <si>
-    <t>dimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>:color</t>
-  </si>
-  <si>
-    <t>:Color</t>
-  </si>
-  <si>
-    <t>[color:-2147483648]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>rdf:value</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>length</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:length</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/////////////////////////wAA////AP//AAAAAP///wD/AP////8AAP//////AP//AAD/AP//////AP////8A/////wD/AP//////AP////8A/////wD/AP//////AP///wD//////wD/AP//////AP///wD//////wD/AP//////AP//AP///////wD//wAA////AP//AAAAAP///wD//////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////wAAAP////8A//////////////8A/////wAA//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A////////////////////////////////</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAAAAAAAAAAAAAAAP//AAAA/wAA/////wD///8A/wAAAAD//wAAAAAA/wAAAAD//wAAAAAA/wAAAAD/AAAAAAD//wAAAAAA/wAAAAD/AAAAAP8A/wAAAAAA/wAAAP8AAAAA/wAA/wAAAAAA/wAAAP8AAAD/AAAA/wAAAAAA/wAA/wAAAAD/AAAAAP//AAAA/wAA/////wD/////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAP///wAAAAD/AAAAAAAAAAAAAAD/AAAAAP//AAAAAAAAAAAAAAD/AAAAAAD/AAAAAAAAAAAAAAD/AAAAAAD/AAAAAAAAAAAAAAD/AAAAAAD/AAAAAAAAAAAAAAD/AAAAAAD/AAAAAAAAAAAAAAD/AAAAAAD/AAAAAAAAAAAAAAD/AAAAAAD/AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/////////////////////////wAA////AP//AAAAAP8AAAAAAP////8AAP//////AP////8AAP//////AP////8A//////8AAP//////AP////8A////AAD/AP//////AP///wD///////8AAP//////AP///wD///////8AAP//////AP//AP////////8A/wAA////AP//AAAAAP8AAAD//////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////wAAAP////8A//////////////8A/////wAA//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A////////////////////////////////</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAAAAAAAAAAAAAAAPz8AAAA/AAA/Pz8/AAAAPz8/AAAAAD8/AAAAAAA/AAAAPz8/AAAAAAA/AAAAAD8AAAA/AD8/AAAAAAA/AAAAAD8AAAA/AD8/AAAAAAA/AAAAPwAAAD8AAD8/AAAAAAA/AAAAPwAAAD8/Pz8/AAAAAAA/AAA/AAAAAAAAAD8APz8AAAA/AAA/Pz8/AAAAAD8AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPz8/AAAAAD8AAAAAAAAAAAAAAD8AAAAAPz8AAAAAAAAAAAAAAD8AAAAAAD8AAAAAAAAAAAAAAD8AAAAAAD8AAAAAAAAAAAAAAD8AAAAAAD8AAAAAAAAAAAAAAD8AAAAAAD8AAAAAAAAAAAAAAD8AAAAAAD8AAAAAAAAAAAAAAD8AAAAAAD8AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/////////////////////////wAA////AP//AAAAAP8AAAAAAP////8AAP//////AP8A////AP//////AP////8A//8A////AP//////AP////8A//8AAAD/AP//////AP///wD///8A//8AAP//////AP///wD///////8AAP//////AP//AP////////8A/wAA////AP//AAAAAP8AAAD//////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////wAAAP////8A//////////////8A/////wAA//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A////////////////////////////////</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>dcterms</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://purl.org/dc/terms/</t>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/PixelType#</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/DimensionOrder#</t>
   </si>
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/z-series/image/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/PixelType#</t>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/DimensionOrder#</t>
-  </si>
-  <si>
-    <t>dimensionOrder:xyctz</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>pixelType:uint8</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:PixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:dimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:BinData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Pixels</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>pixel type</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Image:0</t>
-  </si>
-  <si>
-    <t>"18x24y5z1t2c8b-text"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Pixels:0.0</t>
-  </si>
-  <si>
-    <t>Channel:0</t>
-  </si>
-  <si>
-    <t>xsd:nonNegativeLong</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/z-series/pixels/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/z-series/channel/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/z-series/bindata/</t>
   </si>
 </sst>
 </file>
@@ -789,7 +809,7 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -805,79 +825,103 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -899,96 +943,96 @@
     <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1006,57 +1050,57 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1072,90 +1116,90 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1173,42 +1217,42 @@
         <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1226,7 +1270,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
@@ -1234,21 +1278,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1256,39 +1300,39 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1313,45 +1357,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -1372,7 +1416,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
@@ -1381,24 +1425,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1407,45 +1451,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1">
         <v>576</v>
@@ -1453,13 +1497,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1">
         <v>576</v>
@@ -1467,13 +1511,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1">
         <v>576</v>
@@ -1481,13 +1525,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E8" s="1">
         <v>576</v>
@@ -1495,13 +1539,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1">
         <v>576</v>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/z-series.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/z-series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FFE6EA-67FD-419C-BF49-49C8A411E30F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F10427-FBDB-4F57-AC9D-D8B1ACE230DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" xr2:uid="{C6590354-B643-425C-8354-6D133489F49F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" activeTab="5" xr2:uid="{C6590354-B643-425C-8354-6D133489F49F}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="2" r:id="rId1"/>
@@ -32,9 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
   <si>
-    <t/>
-  </si>
-  <si>
     <t>owl</t>
   </si>
   <si>
@@ -92,24 +89,12 @@
     <t>rdfs:label</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:acquisitionDate</t>
-  </si>
-  <si>
     <t>datatype</t>
   </si>
   <si>
-    <t>:Image</t>
-  </si>
-  <si>
     <t>rdf:langString</t>
   </si>
   <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>xsd:dateTime</t>
   </si>
   <si>
@@ -143,30 +128,18 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
     <t>xsd:positiveInteger</t>
   </si>
   <si>
-    <t>:BinData</t>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
     <t>Binary Data</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>:data</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
@@ -203,12 +176,6 @@
     <t>color</t>
   </si>
   <si>
-    <t>:color</t>
-  </si>
-  <si>
-    <t>:Color</t>
-  </si>
-  <si>
     <t>[color:-2147483648]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -228,10 +195,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:length</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>/////////////////////////wAA////AP//AAAAAP///wD/AP////8AAP//////AP//AAD/AP//////AP////8A/////wD/AP//////AP////8A/////wD/AP//////AP///wD//////wD/AP//////AP///wD//////wD/AP//////AP//AP///////wD//wAA////AP//AAAAAP///wD//////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////wAAAP////8A//////////////8A/////wAA//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A////////////////////////////////</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -267,58 +230,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:PixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:dimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:BinData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Pixels</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pixelType</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -327,10 +238,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Image:0</t>
   </si>
   <si>
@@ -407,6 +314,110 @@
   </si>
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/z-series/bindata/</t>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -811,7 +822,7 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -822,106 +833,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -935,7 +946,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283996B5-94E1-4128-9657-2C3AACBD7B22}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -950,89 +963,89 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1062,45 +1075,45 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1116,90 +1129,90 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1217,42 +1230,42 @@
         <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1278,21 +1291,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1300,39 +1313,39 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1357,45 +1370,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -1411,13 +1424,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684B0809-CAD7-4B5E-829B-C5B7245E7E55}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -1425,24 +1438,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1451,45 +1464,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1">
         <v>576</v>
@@ -1497,13 +1510,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1">
         <v>576</v>
@@ -1511,13 +1524,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1">
         <v>576</v>
@@ -1525,13 +1538,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1">
         <v>576</v>
@@ -1539,13 +1552,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1">
         <v>576</v>
